--- a/python_report/NLDC.xlsx
+++ b/python_report/NLDC.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagasudhir\Documents\Python Projects\Python Excel Reporting\python_report\"/>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="473">
   <si>
     <t xml:space="preserve">Information for Morning Appraisal </t>
   </si>
@@ -222,6 +222,9 @@
     <t>Gujarat</t>
   </si>
   <si>
+    <t>15:00</t>
+  </si>
+  <si>
     <t>iii)</t>
   </si>
   <si>
@@ -234,12 +237,18 @@
     <t>Maharashtra</t>
   </si>
   <si>
+    <t>16:00</t>
+  </si>
+  <si>
     <t>v)</t>
   </si>
   <si>
     <t>Goa</t>
   </si>
   <si>
+    <t>21:00</t>
+  </si>
+  <si>
     <t>vi)</t>
   </si>
   <si>
@@ -255,13 +264,13 @@
     <t>DNH</t>
   </si>
   <si>
-    <t>15:00</t>
-  </si>
-  <si>
     <t>viii)</t>
   </si>
   <si>
     <t>Essar steel</t>
+  </si>
+  <si>
+    <t>5:00</t>
   </si>
   <si>
     <t>**Maximum requirment for the day ( Demand + Load Shedding ) may be computed on hourly basis ( Based on the data recived from states). Corresponding Demand and Load shedding may be entered.</t>
@@ -1330,10 +1339,10 @@
 Dhariwal</t>
   </si>
   <si>
-    <t>DHRWL_GEN</t>
-  </si>
-  <si>
-    <t>DHRWL_SCH</t>
+    <t>DHRWL_CTU_GEN</t>
+  </si>
+  <si>
+    <t>DHRWL_CTU_SCH</t>
   </si>
   <si>
     <t>एसकेएस / SKS</t>
@@ -1480,24 +1489,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1521,6 +1523,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1999,20 +2008,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2040,27 +2048,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2073,13 +2081,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -2088,13 +2096,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2209,7 +2217,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2260,7 +2268,7 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2355,24 +2363,24 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
+  <cellStyles count="5">
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 171" xfId="1"/>
-    <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Normal 33 2" xfId="2"/>
     <cellStyle name="Normal 9" xfId="4"/>
   </cellStyles>
@@ -2652,10 +2660,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O237"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:O237"/>
     </sheetView>
   </sheetViews>
@@ -2664,10 +2671,11 @@
     <col min="2" max="2" width="26.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2686,7 +2694,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -2705,7 +2713,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2713,7 +2721,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="4">
-        <v>4116</v>
+        <v>46007.267999999996</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2722,7 +2730,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="5">
-        <v>43258</v>
+        <v>43260</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -2740,7 +2748,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="6">
-        <v>1125.4428479175258</v>
+        <v>1132.0260001225258</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -2757,7 +2765,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -2765,7 +2773,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="4">
-        <v>20.168400000000084</v>
+        <v>225.43561320000089</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="7" t="s">
@@ -2782,7 +2790,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -2805,7 +2813,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -2828,7 +2836,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -2836,7 +2844,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="6">
-        <v>-198.11143577499899</v>
+        <v>-247.36557694999991</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2853,7 +2861,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -2861,7 +2869,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="6">
-        <v>-199.32342833333331</v>
+        <v>-201.26065949999997</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2876,7 +2884,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -2884,7 +2892,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="6">
-        <v>-1.211992558334309</v>
+        <v>46.104917449999945</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2899,7 +2907,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -2922,7 +2930,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -2945,7 +2953,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -3164,7 +3172,7 @@
       <c r="N23" s="29"/>
       <c r="O23" s="7"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>14</v>
       </c>
@@ -3289,7 +3297,7 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="33" t="s">
         <v>36</v>
@@ -3310,7 +3318,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="33" t="s">
         <v>37</v>
@@ -3335,7 +3343,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="33" t="s">
         <v>39</v>
@@ -3360,7 +3368,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>15</v>
       </c>
@@ -3451,7 +3459,7 @@
       <c r="N35" s="42"/>
       <c r="O35" s="42"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>57</v>
       </c>
@@ -3489,13 +3497,13 @@
         <v>0</v>
       </c>
       <c r="M36" s="43">
-        <v>19.829465499999898</v>
+        <v>20.9306485</v>
       </c>
       <c r="N36" s="43">
-        <v>-1.0649594999998975</v>
+        <v>-2.1661424999999994</v>
       </c>
       <c r="O36" s="43">
-        <v>70.5386666666666</v>
+        <v>172.57999999999899</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -3506,25 +3514,25 @@
         <v>61</v>
       </c>
       <c r="C37" s="43">
-        <v>0</v>
+        <v>14856</v>
       </c>
       <c r="D37" s="43">
-        <v>0</v>
+        <v>72.794400000000294</v>
       </c>
       <c r="E37" s="43">
-        <v>0</v>
+        <v>16699</v>
       </c>
       <c r="F37" s="44" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G37" s="43">
         <v>0</v>
       </c>
       <c r="H37" s="43">
-        <v>0</v>
+        <v>16699</v>
       </c>
       <c r="I37" s="43" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J37" s="43">
         <v>0</v>
@@ -3536,42 +3544,42 @@
         <v>0</v>
       </c>
       <c r="M37" s="43">
-        <v>152.69861750000001</v>
+        <v>131.52449249999901</v>
       </c>
       <c r="N37" s="43">
-        <v>4.265382499999987</v>
+        <v>25.439507500000985</v>
       </c>
       <c r="O37" s="43">
-        <v>470.363333333333</v>
+        <v>655.18533333333301</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="43">
+        <v>7442</v>
+      </c>
+      <c r="D38" s="43">
+        <v>36.465800000000151</v>
+      </c>
+      <c r="E38" s="43">
+        <v>8034</v>
+      </c>
+      <c r="F38" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="43">
-        <v>0</v>
-      </c>
-      <c r="D38" s="43">
-        <v>0</v>
-      </c>
-      <c r="E38" s="43">
-        <v>0</v>
-      </c>
-      <c r="F38" s="44" t="s">
-        <v>59</v>
-      </c>
       <c r="G38" s="43">
         <v>0</v>
       </c>
       <c r="H38" s="43">
-        <v>0</v>
+        <v>8034</v>
       </c>
       <c r="I38" s="43" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J38" s="43">
         <v>0</v>
@@ -3583,42 +3591,42 @@
         <v>0</v>
       </c>
       <c r="M38" s="43">
-        <v>84.671532499999898</v>
+        <v>70.288475000000005</v>
       </c>
       <c r="N38" s="43">
-        <v>-4.9235324999998937</v>
+        <v>9.4595249999999993</v>
       </c>
       <c r="O38" s="43">
-        <v>347.76666666666603</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+        <v>534.55466666666598</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C39" s="43">
-        <v>0</v>
+        <v>18896</v>
       </c>
       <c r="D39" s="43">
-        <v>0</v>
+        <v>92.590400000000372</v>
       </c>
       <c r="E39" s="43">
-        <v>0</v>
+        <v>20882</v>
       </c>
       <c r="F39" s="44" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G39" s="43">
         <v>0</v>
       </c>
       <c r="H39" s="43">
-        <v>0</v>
+        <v>20882</v>
       </c>
       <c r="I39" s="43" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="J39" s="43">
         <v>0</v>
@@ -3630,42 +3638,42 @@
         <v>0</v>
       </c>
       <c r="M39" s="43">
-        <v>132.13692750000001</v>
+        <v>135.275602499999</v>
       </c>
       <c r="N39" s="43">
-        <v>0.25007249999998749</v>
+        <v>-2.8886024999989957</v>
       </c>
       <c r="O39" s="43">
-        <v>400.77333333333303</v>
+        <v>432.43199999999899</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C40" s="43">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="D40" s="43">
-        <v>0</v>
+        <v>2.2981000000000096</v>
       </c>
       <c r="E40" s="43">
-        <v>0</v>
+        <v>471</v>
       </c>
       <c r="F40" s="44" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G40" s="34">
         <v>0</v>
       </c>
       <c r="H40" s="43">
-        <v>0</v>
+        <v>471</v>
       </c>
       <c r="I40" s="43" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="J40" s="43">
         <v>0</v>
@@ -3674,24 +3682,24 @@
         <v>10.427579999999999</v>
       </c>
       <c r="L40" s="43">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M40" s="43">
-        <v>9.9242872499999901</v>
+        <v>9.4506067500000004</v>
       </c>
       <c r="N40" s="43">
-        <v>-0.22720724999999042</v>
+        <v>0.24647324999999931</v>
       </c>
       <c r="O40" s="43">
-        <v>17.970666666666599</v>
+        <v>26.331333333333301</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C41" s="43">
         <v>318</v>
@@ -3703,7 +3711,7 @@
         <v>782</v>
       </c>
       <c r="F41" s="44" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G41" s="43">
         <v>0</v>
@@ -3712,7 +3720,7 @@
         <v>782</v>
       </c>
       <c r="I41" s="43" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J41" s="43">
         <v>0</v>
@@ -3724,21 +3732,21 @@
         <v>0</v>
       </c>
       <c r="M41" s="43">
-        <v>7.3024697500000002</v>
+        <v>6.9578222499999898</v>
       </c>
       <c r="N41" s="43">
-        <v>0.60249024999999978</v>
+        <v>0.94713775000001021</v>
       </c>
       <c r="O41" s="43">
-        <v>52.3973333333333</v>
+        <v>48.777999999999899</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C42" s="43">
         <v>779</v>
@@ -3750,7 +3758,7 @@
         <v>350</v>
       </c>
       <c r="F42" s="44" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="G42" s="43">
         <v>0</v>
@@ -3759,7 +3767,7 @@
         <v>350</v>
       </c>
       <c r="I42" s="43" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="J42" s="43">
         <v>0</v>
@@ -3771,66 +3779,66 @@
         <v>0</v>
       </c>
       <c r="M42" s="43">
-        <v>17.983344249999998</v>
+        <v>17.695578999999999</v>
       </c>
       <c r="N42" s="43">
-        <v>0.36425575000000165</v>
+        <v>0.65202100000000129</v>
       </c>
       <c r="O42" s="43">
-        <v>40.082666666666597</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+        <v>55.14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C43" s="43">
-        <v>0</v>
+        <v>228.268</v>
       </c>
       <c r="D43" s="43">
-        <v>0</v>
+        <v>1.1185132000000046</v>
       </c>
       <c r="E43" s="43">
-        <v>0</v>
+        <v>392.661</v>
       </c>
       <c r="F43" s="44" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="G43" s="34">
         <v>0</v>
       </c>
       <c r="H43" s="43">
-        <v>0</v>
+        <v>392.661</v>
       </c>
       <c r="I43" s="43" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="J43" s="43">
         <v>0</v>
       </c>
       <c r="K43" s="43">
-        <v>0</v>
+        <v>6.5831522050000002</v>
       </c>
       <c r="L43" s="43">
         <v>0</v>
       </c>
       <c r="M43" s="43">
-        <v>6.0772639999999898</v>
+        <v>8.9501360000000005</v>
       </c>
       <c r="N43" s="43">
-        <v>-6.0772639999999898</v>
+        <v>-2.3669837950000003</v>
       </c>
       <c r="O43" s="43">
-        <v>196.230666666666</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+        <v>170.15666666666601</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="45" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C44" s="45"/>
       <c r="D44" s="45"/>
@@ -3848,7 +3856,7 @@
     </row>
     <row r="45" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="46"/>
@@ -3873,7 +3881,7 @@
       <c r="E46" s="46"/>
       <c r="F46" s="46"/>
       <c r="G46" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -3887,28 +3895,28 @@
     <row r="47" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="48"/>
       <c r="B47" s="49" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C47" s="49" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D47" s="48" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E47" s="48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F47" s="48" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G47" s="48" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H47" s="48" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I47" s="48" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J47" s="50"/>
       <c r="K47" s="50"/>
@@ -3919,7 +3927,7 @@
     </row>
     <row r="48" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="51" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B48" s="51"/>
       <c r="C48" s="19"/>
@@ -3936,16 +3944,16 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="19"/>
       <c r="B49" s="51" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C49" s="51" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E49" s="52">
         <v>0</v>
@@ -3963,25 +3971,25 @@
         <v>-5.25</v>
       </c>
       <c r="J49" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
       <c r="B50" s="54" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C50" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="19" t="s">
-        <v>90</v>
-      </c>
       <c r="E50" s="52">
         <v>0</v>
       </c>
       <c r="F50" s="52">
-        <v>-1679.2</v>
+        <v>-2507.9699999999998</v>
       </c>
       <c r="G50" s="52">
         <v>0</v>
@@ -3993,20 +4001,20 @@
         <v>-26.158000000000001</v>
       </c>
       <c r="J50" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="19"/>
       <c r="B51" s="51"/>
       <c r="C51" s="51" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E51" s="52">
-        <v>637.52</v>
+        <v>421.89</v>
       </c>
       <c r="F51" s="52">
         <v>0</v>
@@ -4021,20 +4029,20 @@
         <v>8.4469999999999992</v>
       </c>
       <c r="J51" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="19"/>
       <c r="B52" s="51"/>
       <c r="C52" s="51" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E52" s="52">
-        <v>579.35</v>
+        <v>388.84</v>
       </c>
       <c r="F52" s="52">
         <v>0</v>
@@ -4049,20 +4057,20 @@
         <v>7.01</v>
       </c>
       <c r="J52" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
       <c r="B53" s="1"/>
       <c r="C53" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E53" s="52">
-        <v>958.69</v>
+        <v>757.66</v>
       </c>
       <c r="F53" s="52">
         <v>0</v>
@@ -4077,133 +4085,133 @@
         <v>20.353999999999999</v>
       </c>
       <c r="J53" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="19"/>
       <c r="B54" s="51" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C54" s="51" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E54" s="52">
-        <v>71.2</v>
+        <v>47.68</v>
       </c>
       <c r="F54" s="52">
-        <v>-30.4</v>
+        <v>-38.4</v>
       </c>
       <c r="G54" s="52">
-        <v>0.47082666666666501</v>
+        <v>0.10838399999999999</v>
       </c>
       <c r="H54" s="52">
-        <v>-5.8098666666666597E-2</v>
+        <v>-0.29458399999999801</v>
       </c>
       <c r="I54" s="53">
-        <v>0.41272799999999843</v>
+        <v>-0.18619999999999803</v>
       </c>
       <c r="J54" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="19"/>
       <c r="B55" s="51"/>
       <c r="C55" s="51" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E55" s="52">
-        <v>99.63</v>
+        <v>0</v>
       </c>
       <c r="F55" s="52">
-        <v>-118.99</v>
+        <v>-93.97</v>
       </c>
       <c r="G55" s="52">
-        <v>0.21175216666666599</v>
+        <v>0</v>
       </c>
       <c r="H55" s="52">
-        <v>-0.60686616666666704</v>
+        <v>-1.3908505</v>
       </c>
       <c r="I55" s="53">
-        <v>-0.39511400000000108</v>
+        <v>-1.3908505</v>
       </c>
       <c r="J55" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="19"/>
       <c r="B56" s="51"/>
       <c r="C56" s="51" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E56" s="52">
-        <v>46.56</v>
+        <v>13.92</v>
       </c>
       <c r="F56" s="52">
-        <v>-32.799999999999997</v>
+        <v>-31.16</v>
       </c>
       <c r="G56" s="52">
-        <v>0.17599716666666601</v>
+        <v>4.5208166666666598E-2</v>
       </c>
       <c r="H56" s="52">
-        <v>-0.17935066666666599</v>
+        <v>-0.22921900000000001</v>
       </c>
       <c r="I56" s="53">
-        <v>-3.3534999999999815E-3</v>
+        <v>-0.1840108333333334</v>
       </c>
       <c r="J56" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="19"/>
       <c r="B57" s="51"/>
       <c r="C57" s="51" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E57" s="52">
-        <v>15.3</v>
+        <v>0</v>
       </c>
       <c r="F57" s="52">
-        <v>-51.27</v>
+        <v>-57.52</v>
       </c>
       <c r="G57" s="52">
-        <v>2.2401499999999901E-2</v>
+        <v>0</v>
       </c>
       <c r="H57" s="52">
-        <v>-0.62157433333333301</v>
+        <v>-0.76108216666666495</v>
       </c>
       <c r="I57" s="53">
-        <v>-0.59917283333333315</v>
+        <v>-0.76108216666666495</v>
       </c>
       <c r="J57" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="19"/>
       <c r="B58" s="51" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C58" s="51" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E58" s="52">
         <v>0</v>
@@ -4224,7 +4232,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B59" s="51"/>
       <c r="C59" s="51"/>
@@ -4234,12 +4242,12 @@
       <c r="G59" s="19"/>
       <c r="H59" s="19"/>
       <c r="I59" s="53">
-        <v>-146.77291233333332</v>
+        <v>-148.71014349999999</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -4250,22 +4258,22 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E61" s="52">
-        <v>1138.58</v>
+        <v>1800.6599999999901</v>
       </c>
       <c r="F61" s="52">
-        <v>-810.66</v>
+        <v>-993.85</v>
       </c>
       <c r="G61" s="52">
         <v>4.6063999999999998</v>
@@ -4277,22 +4285,22 @@
         <v>4.6063999999999998</v>
       </c>
       <c r="J61" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="21" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D62" s="50" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E62" s="52">
-        <v>1175.71</v>
+        <v>1138.4000000000001</v>
       </c>
       <c r="F62" s="52">
         <v>0</v>
@@ -4307,19 +4315,19 @@
         <v>20.117000000000001</v>
       </c>
       <c r="J62" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E63" s="52">
         <v>0</v>
@@ -4337,17 +4345,17 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E64" s="52">
         <v>0</v>
@@ -4366,16 +4374,16 @@
       </c>
       <c r="J64" s="55"/>
     </row>
-    <row r="65" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E65" s="52">
         <v>0</v>
@@ -4393,17 +4401,17 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E66" s="52">
         <v>0</v>
@@ -4422,14 +4430,14 @@
       </c>
       <c r="J66" s="55"/>
     </row>
-    <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E67" s="52">
         <v>100</v>
@@ -4450,7 +4458,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="2"/>
@@ -4465,7 +4473,7 @@
     </row>
     <row r="69" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4476,22 +4484,22 @@
       <c r="H69" s="1"/>
       <c r="I69" s="6"/>
     </row>
-    <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E70" s="52">
         <v>0</v>
       </c>
       <c r="F70" s="52">
-        <v>-483.1</v>
+        <v>-518.9</v>
       </c>
       <c r="G70" s="52">
         <v>0</v>
@@ -4503,25 +4511,25 @@
         <v>-7.9279999999999902</v>
       </c>
       <c r="J70" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E71" s="52">
         <v>0</v>
       </c>
       <c r="F71" s="52">
-        <v>-874.53</v>
+        <v>-669.27</v>
       </c>
       <c r="G71" s="52">
         <v>0</v>
@@ -4533,25 +4541,25 @@
         <v>-17.553999999999998</v>
       </c>
       <c r="J71" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E72" s="52">
         <v>0</v>
       </c>
       <c r="F72" s="52">
-        <v>-931.36</v>
+        <v>-577</v>
       </c>
       <c r="G72" s="52">
         <v>0</v>
@@ -4563,17 +4571,17 @@
         <v>-17.248999999999999</v>
       </c>
       <c r="J72" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E73" s="52">
         <v>0</v>
@@ -4591,20 +4599,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E74" s="52">
         <v>0</v>
       </c>
       <c r="F74" s="52">
-        <v>-334.69</v>
+        <v>-395.84</v>
       </c>
       <c r="G74" s="52">
         <v>0</v>
@@ -4616,25 +4624,25 @@
         <v>-5.0140000000000002</v>
       </c>
       <c r="J74" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E75" s="52">
-        <v>18.72</v>
+        <v>71.47</v>
       </c>
       <c r="F75" s="52">
-        <v>-82.33</v>
+        <v>-114.72</v>
       </c>
       <c r="G75" s="52">
         <v>4.2160000000000001E-3</v>
@@ -4646,19 +4654,19 @@
         <v>-0.598916</v>
       </c>
       <c r="J75" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E76" s="52">
         <v>0</v>
@@ -4676,12 +4684,12 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="J76" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -4694,24 +4702,24 @@
         <v>-50.643915999999983</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E78" s="52">
         <v>0</v>
       </c>
       <c r="F78" s="52">
-        <v>-2363.65</v>
+        <v>-2363.86</v>
       </c>
       <c r="G78" s="52">
         <v>0</v>
@@ -4723,12 +4731,12 @@
         <v>-44.195999999999998</v>
       </c>
       <c r="J78" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="56" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B79" s="56"/>
       <c r="C79" s="56"/>
@@ -4743,16 +4751,16 @@
       <c r="A80" s="56"/>
       <c r="B80" s="56"/>
       <c r="C80" s="57" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D80" s="58" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E80" s="58" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F80" s="58" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
@@ -4762,16 +4770,16 @@
       <c r="A81" s="56"/>
       <c r="B81" s="56"/>
       <c r="C81" s="57" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D81" s="59">
-        <v>44.665977499999997</v>
+        <v>43.938592166666666</v>
       </c>
       <c r="E81" s="59">
-        <v>191.43888983333332</v>
+        <v>192.64873566666665</v>
       </c>
       <c r="F81" s="59">
-        <v>146.77291233333332</v>
+        <v>148.71014349999999</v>
       </c>
       <c r="G81" s="18"/>
       <c r="H81" s="8"/>
@@ -4780,7 +4788,7 @@
       <c r="A82" s="56"/>
       <c r="B82" s="56"/>
       <c r="C82" s="57" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D82" s="59">
         <v>4.2160000000000001E-3</v>
@@ -4798,7 +4806,7 @@
       <c r="A83" s="56"/>
       <c r="B83" s="56"/>
       <c r="C83" s="57" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D83" s="59">
         <v>24.723400000000002</v>
@@ -4814,7 +4822,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="56" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B84" s="56"/>
       <c r="C84" s="60"/>
@@ -4828,10 +4836,10 @@
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="57" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D85" s="62">
-        <v>199.32342833333331</v>
+        <v>201.26065949999997</v>
       </c>
       <c r="E85" s="61"/>
       <c r="F85" s="61"/>
@@ -4840,7 +4848,7 @@
     </row>
     <row r="86" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="20" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="63"/>
@@ -4853,31 +4861,31 @@
     <row r="87" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C88" s="6">
         <v>415.96</v>
@@ -4886,7 +4894,7 @@
         <v>414.4</v>
       </c>
       <c r="E88" s="6">
-        <v>415.24933333333598</v>
+        <v>415.13070833333302</v>
       </c>
       <c r="F88" s="6">
         <v>0</v>
@@ -4898,22 +4906,22 @@
         <v>100</v>
       </c>
       <c r="I88" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C89" s="6">
-        <v>401.88</v>
+        <v>400.09</v>
       </c>
       <c r="D89" s="6">
-        <v>394.72</v>
+        <v>395.61</v>
       </c>
       <c r="E89" s="6">
-        <v>397.501444444443</v>
+        <v>398.25112500000398</v>
       </c>
       <c r="F89" s="6">
         <v>0</v>
@@ -4925,22 +4933,22 @@
         <v>100</v>
       </c>
       <c r="I89" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C90" s="6">
-        <v>413.63</v>
+        <v>410.63</v>
       </c>
       <c r="D90" s="6">
-        <v>400.13</v>
+        <v>399.88</v>
       </c>
       <c r="E90" s="6">
-        <v>405.13156250000401</v>
+        <v>406.26576388889202</v>
       </c>
       <c r="F90" s="6">
         <v>0</v>
@@ -4952,22 +4960,22 @@
         <v>100</v>
       </c>
       <c r="I90" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C91" s="6">
-        <v>413.84</v>
+        <v>411.49</v>
       </c>
       <c r="D91" s="6">
-        <v>396.26</v>
+        <v>401.53</v>
       </c>
       <c r="E91" s="6">
-        <v>405.229729166666</v>
+        <v>406.99453472222001</v>
       </c>
       <c r="F91" s="6">
         <v>0</v>
@@ -4979,22 +4987,22 @@
         <v>100</v>
       </c>
       <c r="I91" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C92" s="6">
-        <v>412.66</v>
+        <v>412.08</v>
       </c>
       <c r="D92" s="6">
-        <v>393.91</v>
+        <v>400.36</v>
       </c>
       <c r="E92" s="6">
-        <v>404.62554166666598</v>
+        <v>405.93506249999598</v>
       </c>
       <c r="F92" s="6">
         <v>0</v>
@@ -5006,22 +5014,22 @@
         <v>100</v>
       </c>
       <c r="I92" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C93" s="6">
-        <v>423.21</v>
+        <v>422.63</v>
       </c>
       <c r="D93" s="6">
-        <v>405.63</v>
+        <v>411.49</v>
       </c>
       <c r="E93" s="6">
-        <v>415.79386111111</v>
+        <v>417.20990277777798</v>
       </c>
       <c r="F93" s="6">
         <v>0</v>
@@ -5033,22 +5041,22 @@
         <v>100</v>
       </c>
       <c r="I93" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C94" s="6">
-        <v>423.21</v>
+        <v>424.38</v>
       </c>
       <c r="D94" s="6">
-        <v>417.35</v>
+        <v>419.7</v>
       </c>
       <c r="E94" s="6">
-        <v>421.05847916667</v>
+        <v>422.65429166666598</v>
       </c>
       <c r="F94" s="6">
         <v>0</v>
@@ -5060,22 +5068,22 @@
         <v>100</v>
       </c>
       <c r="I94" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C95" s="6">
         <v>420.94</v>
       </c>
       <c r="D95" s="6">
-        <v>415.08</v>
+        <v>414.11</v>
       </c>
       <c r="E95" s="6">
-        <v>418.712465277771</v>
+        <v>417.74302083333299</v>
       </c>
       <c r="F95" s="6">
         <v>0</v>
@@ -5087,22 +5095,22 @@
         <v>100</v>
       </c>
       <c r="I95" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C96" s="6">
-        <v>412.66</v>
+        <v>414.42</v>
       </c>
       <c r="D96" s="6">
-        <v>395.67</v>
+        <v>398.01</v>
       </c>
       <c r="E96" s="6">
-        <v>404.74119444444398</v>
+        <v>406.36654861110998</v>
       </c>
       <c r="F96" s="6">
         <v>0</v>
@@ -5114,21 +5122,21 @@
         <v>100</v>
       </c>
       <c r="I96" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C97" s="6">
-        <v>424.97</v>
+        <v>426.73</v>
       </c>
       <c r="D97" s="6">
-        <v>402.12</v>
+        <v>399.19</v>
       </c>
       <c r="E97" s="6">
-        <v>415.80452777777901</v>
+        <v>416.52777777777999</v>
       </c>
       <c r="F97" s="6">
         <v>0</v>
@@ -5140,73 +5148,73 @@
         <v>100</v>
       </c>
       <c r="I97" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C98" s="6">
-        <v>458.34</v>
+        <v>420</v>
       </c>
       <c r="D98" s="6">
         <v>0.01</v>
       </c>
       <c r="E98" s="6">
-        <v>397.34293055556202</v>
+        <v>403.475965277782</v>
       </c>
       <c r="F98" s="6">
-        <v>0.20833333333333301</v>
+        <v>0</v>
       </c>
       <c r="G98" s="6">
-        <v>3.4027777777777701</v>
+        <v>2.01388888888888</v>
       </c>
       <c r="H98" s="64">
-        <v>96.3888888888889</v>
+        <v>97.986111111111114</v>
       </c>
       <c r="I98" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C99" s="6">
-        <v>422.63</v>
+        <v>421.45</v>
       </c>
       <c r="D99" s="6">
-        <v>409.73</v>
+        <v>0</v>
       </c>
       <c r="E99" s="6">
-        <v>416.87408333333502</v>
+        <v>416.57702777777899</v>
       </c>
       <c r="F99" s="6">
         <v>0</v>
       </c>
       <c r="G99" s="6">
-        <v>0</v>
+        <v>6.9444444444444406E-2</v>
       </c>
       <c r="H99" s="64">
-        <v>100</v>
+        <v>99.930555555555557</v>
       </c>
       <c r="I99" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C100" s="6">
-        <v>416.34</v>
+        <v>416.45</v>
       </c>
       <c r="D100" s="6">
-        <v>395.2</v>
+        <v>402.37</v>
       </c>
       <c r="E100" s="6">
-        <v>408.10354861111199</v>
+        <v>409.19905555555601</v>
       </c>
       <c r="F100" s="6">
         <v>0</v>
@@ -5218,21 +5226,21 @@
         <v>100</v>
       </c>
       <c r="I100" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C101" s="6">
-        <v>416.85</v>
+        <v>417.91</v>
       </c>
       <c r="D101" s="6">
-        <v>396.83</v>
+        <v>403.17</v>
       </c>
       <c r="E101" s="6">
-        <v>408.68972916666701</v>
+        <v>411.10485416666597</v>
       </c>
       <c r="F101" s="6">
         <v>0</v>
@@ -5244,21 +5252,21 @@
         <v>100</v>
       </c>
       <c r="I101" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C102" s="6">
-        <v>414.27</v>
+        <v>413.4</v>
       </c>
       <c r="D102" s="6">
-        <v>394.69</v>
+        <v>398.33</v>
       </c>
       <c r="E102" s="6">
-        <v>405.26291666666702</v>
+        <v>405.91853472222198</v>
       </c>
       <c r="F102" s="6">
         <v>0</v>
@@ -5270,73 +5278,73 @@
         <v>100</v>
       </c>
       <c r="I102" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C103" s="6">
-        <v>416.81</v>
+        <v>414.19</v>
       </c>
       <c r="D103" s="6">
-        <v>397.92</v>
+        <v>0</v>
       </c>
       <c r="E103" s="6">
-        <v>406.94454861111001</v>
+        <v>407.34672222222201</v>
       </c>
       <c r="F103" s="6">
         <v>0</v>
       </c>
       <c r="G103" s="6">
-        <v>0</v>
+        <v>0.13888888888888801</v>
       </c>
       <c r="H103" s="64">
-        <v>100</v>
+        <v>99.861111111111114</v>
       </c>
       <c r="I103" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C104" s="6">
-        <v>426.28</v>
+        <v>425.79</v>
       </c>
       <c r="D104" s="6">
-        <v>318.66000000000003</v>
+        <v>318.73</v>
       </c>
       <c r="E104" s="6">
-        <v>413.14804166666102</v>
+        <v>414.60628472221703</v>
       </c>
       <c r="F104" s="6">
         <v>0</v>
       </c>
       <c r="G104" s="6">
-        <v>10.5555555555555</v>
+        <v>9.1666666666666607</v>
       </c>
       <c r="H104" s="64">
-        <v>89.4444444444445</v>
+        <v>90.833333333333343</v>
       </c>
       <c r="I104" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B105" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C105" s="6">
-        <v>425.32</v>
+        <v>424.91</v>
       </c>
       <c r="D105" s="6">
-        <v>403.86</v>
+        <v>404.39</v>
       </c>
       <c r="E105" s="6">
-        <v>414.57709027777599</v>
+        <v>413.91669444444398</v>
       </c>
       <c r="F105" s="6">
         <v>0</v>
@@ -5348,21 +5356,21 @@
         <v>100</v>
       </c>
       <c r="I105" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B106" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C106" s="6">
-        <v>416.49</v>
+        <v>416</v>
       </c>
       <c r="D106" s="6">
-        <v>394.96</v>
+        <v>396.92</v>
       </c>
       <c r="E106" s="6">
-        <v>406.22833333333199</v>
+        <v>407.643097222221</v>
       </c>
       <c r="F106" s="6">
         <v>0</v>
@@ -5374,47 +5382,47 @@
         <v>100</v>
       </c>
       <c r="I106" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C107" s="6">
-        <v>406.58</v>
+        <v>410.59</v>
       </c>
       <c r="D107" s="6">
-        <v>373.19</v>
+        <v>382.65</v>
       </c>
       <c r="E107" s="6">
-        <v>390.83493055555499</v>
+        <v>396.68834722222101</v>
       </c>
       <c r="F107" s="6">
         <v>0</v>
       </c>
       <c r="G107" s="6">
-        <v>8.4027777777777697</v>
+        <v>0</v>
       </c>
       <c r="H107" s="64">
-        <v>91.597222222222229</v>
+        <v>100</v>
       </c>
       <c r="I107" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C108" s="6">
-        <v>424.63</v>
+        <v>429</v>
       </c>
       <c r="D108" s="6">
-        <v>394.55</v>
+        <v>404.46</v>
       </c>
       <c r="E108" s="6">
-        <v>410.54747916666599</v>
+        <v>417.09104166666702</v>
       </c>
       <c r="F108" s="6">
         <v>0</v>
@@ -5426,21 +5434,21 @@
         <v>100</v>
       </c>
       <c r="I108" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C109" s="6">
-        <v>414.23</v>
+        <v>418.29</v>
       </c>
       <c r="D109" s="6">
-        <v>383.71</v>
+        <v>394.72</v>
       </c>
       <c r="E109" s="6">
-        <v>400.349999999999</v>
+        <v>406.77867361111299</v>
       </c>
       <c r="F109" s="6">
         <v>0</v>
@@ -5452,21 +5460,21 @@
         <v>100</v>
       </c>
       <c r="I109" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C110" s="6">
-        <v>414.87</v>
+        <v>419.35</v>
       </c>
       <c r="D110" s="6">
         <v>380.87</v>
       </c>
       <c r="E110" s="6">
-        <v>400.459277777777</v>
+        <v>407.05710416666602</v>
       </c>
       <c r="F110" s="6">
         <v>0</v>
@@ -5478,21 +5486,21 @@
         <v>100</v>
       </c>
       <c r="I110" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B111" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C111" s="6">
-        <v>424.63</v>
+        <v>421.88</v>
       </c>
       <c r="D111" s="6">
-        <v>407.48</v>
+        <v>410.63</v>
       </c>
       <c r="E111" s="6">
-        <v>416.897180555555</v>
+        <v>417.33147916666701</v>
       </c>
       <c r="F111" s="6">
         <v>0</v>
@@ -5504,21 +5512,21 @@
         <v>100</v>
       </c>
       <c r="I111" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C112" s="6">
-        <v>419.92</v>
+        <v>418.94</v>
       </c>
       <c r="D112" s="6">
-        <v>403.28</v>
+        <v>408.66</v>
       </c>
       <c r="E112" s="6">
-        <v>412.12546527777698</v>
+        <v>414.60727083333501</v>
       </c>
       <c r="F112" s="6">
         <v>0</v>
@@ -5530,21 +5538,21 @@
         <v>100</v>
       </c>
       <c r="I112" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C113" s="6">
-        <v>421.88</v>
+        <v>423.35</v>
       </c>
       <c r="D113" s="6">
-        <v>405.73</v>
+        <v>410.13</v>
       </c>
       <c r="E113" s="6">
-        <v>415.747499999995</v>
+        <v>418.574361111114</v>
       </c>
       <c r="F113" s="6">
         <v>0</v>
@@ -5556,21 +5564,21 @@
         <v>100</v>
       </c>
       <c r="I113" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B114" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C114" s="6">
-        <v>416.26</v>
+        <v>417.71</v>
       </c>
       <c r="D114" s="6">
-        <v>398.85</v>
+        <v>402.36</v>
       </c>
       <c r="E114" s="6">
-        <v>409.89697222221997</v>
+        <v>412.43636805555701</v>
       </c>
       <c r="F114" s="6">
         <v>0</v>
@@ -5582,21 +5590,21 @@
         <v>100</v>
       </c>
       <c r="I114" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C115" s="6">
-        <v>424.43</v>
+        <v>427.3</v>
       </c>
       <c r="D115" s="6">
-        <v>402.62</v>
+        <v>408.65</v>
       </c>
       <c r="E115" s="6">
-        <v>414.16355555555498</v>
+        <v>418.87437500000198</v>
       </c>
       <c r="F115" s="6">
         <v>0</v>
@@ -5608,64 +5616,64 @@
         <v>100</v>
       </c>
       <c r="I115" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B116" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C116" s="6">
-        <v>438.87</v>
+        <v>439.52</v>
       </c>
       <c r="D116" s="6">
-        <v>30.57</v>
+        <v>61.04</v>
       </c>
       <c r="E116" s="6">
-        <v>424.35624305555399</v>
+        <v>428.21315972222101</v>
       </c>
       <c r="F116" s="6">
-        <v>61.9444444444444</v>
+        <v>73.6111111111111</v>
       </c>
       <c r="G116" s="6">
-        <v>3.125</v>
+        <v>2.0833333333333299</v>
       </c>
       <c r="H116" s="64">
-        <v>34.9305555555556</v>
+        <v>24.305555555555571</v>
       </c>
       <c r="I116" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C117" s="6">
-        <v>433.28</v>
+        <v>432.52</v>
       </c>
       <c r="D117" s="6">
-        <v>404.25</v>
+        <v>410.2</v>
       </c>
       <c r="E117" s="6">
-        <v>421.13213194444398</v>
+        <v>421.83806944444399</v>
       </c>
       <c r="F117" s="6">
-        <v>3.88888888888888</v>
+        <v>3.5416666666666599</v>
       </c>
       <c r="G117" s="6">
         <v>0</v>
       </c>
       <c r="H117" s="64">
-        <v>96.111111111111114</v>
+        <v>96.458333333333343</v>
       </c>
       <c r="I117" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B118" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C118" s="6">
         <v>400</v>
@@ -5686,21 +5694,21 @@
         <v>100</v>
       </c>
       <c r="I118" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B119" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C119" s="6">
-        <v>424.84</v>
+        <v>424.08</v>
       </c>
       <c r="D119" s="6">
-        <v>406.21</v>
+        <v>409.6</v>
       </c>
       <c r="E119" s="6">
-        <v>416.63743749999901</v>
+        <v>418.10905555555502</v>
       </c>
       <c r="F119" s="6">
         <v>0</v>
@@ -5712,21 +5720,21 @@
         <v>100</v>
       </c>
       <c r="I119" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C120" s="6">
-        <v>411.08</v>
+        <v>413.14</v>
       </c>
       <c r="D120" s="6">
-        <v>391.19</v>
+        <v>395.91</v>
       </c>
       <c r="E120" s="6">
-        <v>402.85895833333302</v>
+        <v>405.15952777777699</v>
       </c>
       <c r="F120" s="6">
         <v>0</v>
@@ -5738,21 +5746,21 @@
         <v>100</v>
       </c>
       <c r="I120" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B121" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C121" s="6">
-        <v>417.48</v>
+        <v>418.82</v>
       </c>
       <c r="D121" s="6">
-        <v>404.99</v>
+        <v>405.56</v>
       </c>
       <c r="E121" s="6">
-        <v>411.46308333333201</v>
+        <v>412.51971527777602</v>
       </c>
       <c r="F121" s="6">
         <v>0</v>
@@ -5764,21 +5772,21 @@
         <v>100</v>
       </c>
       <c r="I121" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C122" s="6">
-        <v>411.72</v>
+        <v>412.89</v>
       </c>
       <c r="D122" s="6">
-        <v>403.5</v>
+        <v>401.73</v>
       </c>
       <c r="E122" s="6">
-        <v>407.419611111113</v>
+        <v>406.86796527777699</v>
       </c>
       <c r="F122" s="6">
         <v>0</v>
@@ -5790,21 +5798,21 @@
         <v>100</v>
       </c>
       <c r="I122" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C123" s="6">
-        <v>413.66</v>
+        <v>415.52</v>
       </c>
       <c r="D123" s="6">
-        <v>396.92</v>
+        <v>400.64</v>
       </c>
       <c r="E123" s="6">
-        <v>406.15089583333503</v>
+        <v>408.52368749999602</v>
       </c>
       <c r="F123" s="6">
         <v>0</v>
@@ -5816,21 +5824,21 @@
         <v>100</v>
       </c>
       <c r="I123" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B124" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C124" s="6">
-        <v>413.79</v>
+        <v>415.75</v>
       </c>
       <c r="D124" s="6">
-        <v>397.31</v>
+        <v>400.45</v>
       </c>
       <c r="E124" s="6">
-        <v>405.58037499999898</v>
+        <v>407.70045833333199</v>
       </c>
       <c r="F124" s="6">
         <v>0</v>
@@ -5842,21 +5850,21 @@
         <v>100</v>
       </c>
       <c r="I124" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B125" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C125" s="6">
-        <v>422.52</v>
+        <v>423.13</v>
       </c>
       <c r="D125" s="6">
-        <v>402.38</v>
+        <v>406.04</v>
       </c>
       <c r="E125" s="6">
-        <v>412.32603472222303</v>
+        <v>414.88786805555497</v>
       </c>
       <c r="F125" s="6">
         <v>0</v>
@@ -5868,21 +5876,21 @@
         <v>100</v>
       </c>
       <c r="I125" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B126" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C126" s="6">
-        <v>421.85</v>
+        <v>423.38</v>
       </c>
       <c r="D126" s="6">
-        <v>404.76</v>
+        <v>406.59</v>
       </c>
       <c r="E126" s="6">
-        <v>413.77818055555502</v>
+        <v>415.45779861110998</v>
       </c>
       <c r="F126" s="6">
         <v>0</v>
@@ -5894,21 +5902,21 @@
         <v>100</v>
       </c>
       <c r="I126" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B127" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C127" s="6">
-        <v>416.11</v>
+        <v>417.45</v>
       </c>
       <c r="D127" s="6">
-        <v>403.3</v>
+        <v>401.97</v>
       </c>
       <c r="E127" s="6">
-        <v>409.68972222222101</v>
+        <v>411.39661111111099</v>
       </c>
       <c r="F127" s="6">
         <v>0</v>
@@ -5920,21 +5928,21 @@
         <v>100</v>
       </c>
       <c r="I127" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B128" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C128" s="6">
-        <v>416.12</v>
+        <v>417.58</v>
       </c>
       <c r="D128" s="6">
-        <v>403.43</v>
+        <v>405.38</v>
       </c>
       <c r="E128" s="6">
-        <v>409.91660416666599</v>
+        <v>411.758701388887</v>
       </c>
       <c r="F128" s="6">
         <v>0</v>
@@ -5946,21 +5954,21 @@
         <v>100</v>
       </c>
       <c r="I128" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B129" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C129" s="6">
-        <v>418.39</v>
+        <v>417.98</v>
       </c>
       <c r="D129" s="6">
-        <v>411.52</v>
+        <v>412.48</v>
       </c>
       <c r="E129" s="6">
-        <v>415.47405555555298</v>
+        <v>415.533583333335</v>
       </c>
       <c r="F129" s="6">
         <v>0</v>
@@ -5972,21 +5980,21 @@
         <v>100</v>
       </c>
       <c r="I129" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B130" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C130" s="6">
-        <v>423.49</v>
+        <v>423.63</v>
       </c>
       <c r="D130" s="6">
-        <v>419.24</v>
+        <v>418.28</v>
       </c>
       <c r="E130" s="6">
-        <v>421.28320138889001</v>
+        <v>421.45213194444301</v>
       </c>
       <c r="F130" s="6">
         <v>0</v>
@@ -5998,21 +6006,21 @@
         <v>100</v>
       </c>
       <c r="I130" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B131" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C131" s="6">
-        <v>419.4</v>
+        <v>406.95</v>
       </c>
       <c r="D131" s="6">
-        <v>391.16</v>
+        <v>393.63</v>
       </c>
       <c r="E131" s="6">
-        <v>403.104645833333</v>
+        <v>400.33154166666702</v>
       </c>
       <c r="F131" s="6">
         <v>0</v>
@@ -6024,21 +6032,21 @@
         <v>100</v>
       </c>
       <c r="I131" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B132" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C132" s="6">
-        <v>416.85</v>
+        <v>417.91</v>
       </c>
       <c r="D132" s="6">
-        <v>396.83</v>
+        <v>403.17</v>
       </c>
       <c r="E132" s="6">
-        <v>408.68972916666701</v>
+        <v>411.10485416666597</v>
       </c>
       <c r="F132" s="6">
         <v>0</v>
@@ -6050,21 +6058,21 @@
         <v>100</v>
       </c>
       <c r="I132" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B133" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C133" s="6">
-        <v>426.24</v>
+        <v>426.94</v>
       </c>
       <c r="D133" s="6">
-        <v>405.54</v>
+        <v>411.94</v>
       </c>
       <c r="E133" s="6">
-        <v>417.65187500000002</v>
+        <v>420.10652777777801</v>
       </c>
       <c r="F133" s="6">
         <v>0</v>
@@ -6076,21 +6084,21 @@
         <v>100</v>
       </c>
       <c r="I133" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B134" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C134" s="6">
-        <v>422.92</v>
+        <v>423.62</v>
       </c>
       <c r="D134" s="6">
-        <v>415.16</v>
+        <v>417.6</v>
       </c>
       <c r="E134" s="6">
-        <v>418.90265277777598</v>
+        <v>420.39843055555701</v>
       </c>
       <c r="F134" s="6">
         <v>0</v>
@@ -6102,21 +6110,21 @@
         <v>100</v>
       </c>
       <c r="I134" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B135" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C135" s="6">
-        <v>428.81</v>
+        <v>428.52</v>
       </c>
       <c r="D135" s="6">
-        <v>414.34</v>
+        <v>412.5</v>
       </c>
       <c r="E135" s="6">
-        <v>421.08606944444</v>
+        <v>420.73243055555503</v>
       </c>
       <c r="F135" s="6">
         <v>0</v>
@@ -6128,21 +6136,21 @@
         <v>100</v>
       </c>
       <c r="I135" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B136" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C136" s="6">
-        <v>423.59</v>
+        <v>420.82</v>
       </c>
       <c r="D136" s="6">
-        <v>409.67</v>
+        <v>413.88</v>
       </c>
       <c r="E136" s="6">
-        <v>419.12671527777297</v>
+        <v>416.89215277778197</v>
       </c>
       <c r="F136" s="6">
         <v>0</v>
@@ -6154,12 +6162,12 @@
         <v>100</v>
       </c>
       <c r="I136" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B137" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C137" s="6">
         <v>415.18</v>
@@ -6183,39 +6191,39 @@
     </row>
     <row r="138" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B138" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B139" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C139" s="3">
-        <v>794.13</v>
+        <v>790.55</v>
       </c>
       <c r="D139" s="3">
-        <v>771.56</v>
+        <v>773.89</v>
       </c>
       <c r="E139" s="3">
-        <v>782.92871527777697</v>
+        <v>782.58168055555495</v>
       </c>
       <c r="F139" s="3">
         <v>0</v>
@@ -6227,21 +6235,21 @@
         <v>100</v>
       </c>
       <c r="I139" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B140" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C140" s="3">
-        <v>767.51</v>
+        <v>765.54</v>
       </c>
       <c r="D140" s="3">
-        <v>757.11</v>
+        <v>755.59</v>
       </c>
       <c r="E140" s="3">
-        <v>762.84630555555304</v>
+        <v>761.56081944444202</v>
       </c>
       <c r="F140" s="3">
         <v>0</v>
@@ -6253,73 +6261,73 @@
         <v>100</v>
       </c>
       <c r="I140" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B141" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C141" s="3">
-        <v>805.97</v>
+        <v>788.65</v>
       </c>
       <c r="D141" s="3">
-        <v>758.27</v>
+        <v>764.74</v>
       </c>
       <c r="E141" s="3">
-        <v>778.70901388888797</v>
+        <v>776.02680555555798</v>
       </c>
       <c r="F141" s="3">
-        <v>10.4861111111111</v>
+        <v>0</v>
       </c>
       <c r="G141" s="3">
         <v>0</v>
       </c>
       <c r="H141" s="64">
-        <v>89.5138888888889</v>
+        <v>100</v>
       </c>
       <c r="I141" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B142" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C142" s="3">
-        <v>800.43</v>
+        <v>792.66</v>
       </c>
       <c r="D142" s="3">
-        <v>760.24</v>
+        <v>768.25</v>
       </c>
       <c r="E142" s="3">
-        <v>779.19965277777806</v>
+        <v>779.250152777778</v>
       </c>
       <c r="F142" s="3">
-        <v>0.90277777777777701</v>
+        <v>0</v>
       </c>
       <c r="G142" s="3">
         <v>0</v>
       </c>
       <c r="H142" s="64">
-        <v>99.097222222222229</v>
+        <v>100</v>
       </c>
       <c r="I142" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B143" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C143" s="3">
-        <v>798.35</v>
+        <v>797.82</v>
       </c>
       <c r="D143" s="3">
-        <v>775.61</v>
+        <v>780.75</v>
       </c>
       <c r="E143" s="3">
-        <v>787.96087499999999</v>
+        <v>790.40953472222498</v>
       </c>
       <c r="F143" s="3">
         <v>0</v>
@@ -6331,21 +6339,21 @@
         <v>100</v>
       </c>
       <c r="I143" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B144" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C144" s="3">
-        <v>770.31</v>
+        <v>768.11</v>
       </c>
       <c r="D144" s="3">
-        <v>757.72</v>
+        <v>757.54</v>
       </c>
       <c r="E144" s="3">
-        <v>764.86940972222203</v>
+        <v>763.46302083333296</v>
       </c>
       <c r="F144" s="3">
         <v>0</v>
@@ -6357,22 +6365,22 @@
         <v>100</v>
       </c>
       <c r="I144" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C145" s="3">
-        <v>789.12</v>
+        <v>789.93</v>
       </c>
       <c r="D145" s="3">
-        <v>749.2</v>
+        <v>756.34</v>
       </c>
       <c r="E145" s="3">
-        <v>771.37659722222099</v>
+        <v>773.50285416666497</v>
       </c>
       <c r="F145" s="3">
         <v>0</v>
@@ -6384,22 +6392,22 @@
         <v>100</v>
       </c>
       <c r="I145" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C146" s="3">
-        <v>788.44</v>
+        <v>782.96</v>
       </c>
       <c r="D146" s="3">
-        <v>755.39</v>
+        <v>758.89</v>
       </c>
       <c r="E146" s="3">
-        <v>770.49225694444999</v>
+        <v>773.44868055554798</v>
       </c>
       <c r="F146" s="3">
         <v>0</v>
@@ -6411,22 +6419,22 @@
         <v>100</v>
       </c>
       <c r="I146" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C147" s="3">
-        <v>781.18</v>
+        <v>778.14</v>
       </c>
       <c r="D147" s="3">
-        <v>761.08</v>
+        <v>764.48</v>
       </c>
       <c r="E147" s="3">
-        <v>769.80393055555703</v>
+        <v>771.271569444443</v>
       </c>
       <c r="F147" s="3">
         <v>0</v>
@@ -6438,7 +6446,7 @@
         <v>100</v>
       </c>
       <c r="I147" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6452,18 +6460,18 @@
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B149" s="65" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C149" s="66"/>
       <c r="D149" s="66"/>
       <c r="E149" s="66"/>
       <c r="F149" s="67" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G149" s="66"/>
       <c r="H149" s="66"/>
@@ -6472,28 +6480,28 @@
     <row r="150" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E150" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F150" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="F150" s="3" t="s">
-        <v>289</v>
-      </c>
       <c r="G150" s="3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6507,10 +6515,10 @@
         <v>14.793100000000061</v>
       </c>
       <c r="D151" s="70">
-        <v>-104.101333333333</v>
+        <v>1.45533333333333</v>
       </c>
       <c r="E151" s="4">
-        <v>178.33600000000001</v>
+        <v>191.57900000000001</v>
       </c>
       <c r="F151" s="69">
         <v>3467</v>
@@ -6519,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="H151" s="70">
-        <v>-75.365333333333297</v>
+        <v>60.085333333333303</v>
       </c>
       <c r="I151" s="4">
         <v>191.57900000000001</v>
@@ -6530,91 +6538,91 @@
         <v>61</v>
       </c>
       <c r="B152" s="69">
-        <v>0</v>
+        <v>14856</v>
       </c>
       <c r="C152" s="69">
-        <v>0</v>
+        <v>72.794400000000294</v>
       </c>
       <c r="D152" s="70">
-        <v>-73.915999999999997</v>
+        <v>42.909333333333301</v>
       </c>
       <c r="E152" s="4">
-        <v>1502.1885000000002</v>
+        <v>1470.646</v>
       </c>
       <c r="F152" s="69">
-        <v>0</v>
+        <v>14951</v>
       </c>
       <c r="G152" s="69">
         <v>0</v>
       </c>
       <c r="H152" s="70">
-        <v>135.28133333333301</v>
+        <v>79.219333333333296</v>
       </c>
       <c r="I152" s="4">
-        <v>3261.201</v>
+        <v>2978.991</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B153" s="69">
-        <v>0</v>
+        <v>7442</v>
       </c>
       <c r="C153" s="69">
-        <v>0</v>
+        <v>36.465800000000151</v>
       </c>
       <c r="D153" s="70">
-        <v>-89.594666666666598</v>
+        <v>16.836666666666599</v>
       </c>
       <c r="E153" s="4">
-        <v>-1173.771</v>
+        <v>-2150.337</v>
       </c>
       <c r="F153" s="69">
-        <v>0</v>
+        <v>7818</v>
       </c>
       <c r="G153" s="69">
         <v>0</v>
       </c>
       <c r="H153" s="70">
-        <v>-305.67399999999998</v>
+        <v>-120.06066666666599</v>
       </c>
       <c r="I153" s="4">
-        <v>-873.50299999999993</v>
+        <v>-1367.087</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B154" s="69">
-        <v>0</v>
+        <v>18896</v>
       </c>
       <c r="C154" s="69">
-        <v>0</v>
+        <v>92.590400000000372</v>
       </c>
       <c r="D154" s="70">
-        <v>-428.683999999999</v>
+        <v>-36.725333333333303</v>
       </c>
       <c r="E154" s="4">
-        <v>229.09957</v>
+        <v>366.267</v>
       </c>
       <c r="F154" s="69">
-        <v>0</v>
+        <v>17629</v>
       </c>
       <c r="G154" s="69">
         <v>0</v>
       </c>
       <c r="H154" s="70">
-        <v>-108.935999999999</v>
+        <v>-197.23466666666599</v>
       </c>
       <c r="I154" s="4">
-        <v>53.588000000000022</v>
+        <v>188.02300000000002</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B155" s="69">
         <v>318</v>
@@ -6623,10 +6631,10 @@
         <v>1.5582000000000065</v>
       </c>
       <c r="D155" s="70">
-        <v>19.067333333333298</v>
+        <v>32.466666666666598</v>
       </c>
       <c r="E155" s="4">
-        <v>49.3</v>
+        <v>78.88</v>
       </c>
       <c r="F155" s="69">
         <v>316</v>
@@ -6635,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="H155" s="70">
-        <v>32.986666666666601</v>
+        <v>18.710666666666601</v>
       </c>
       <c r="I155" s="4">
         <v>49.3</v>
@@ -6643,7 +6651,7 @@
     </row>
     <row r="156" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B156" s="69">
         <v>779</v>
@@ -6652,10 +6660,10 @@
         <v>3.8171000000000159</v>
       </c>
       <c r="D156" s="70">
-        <v>-6.8473333333333297</v>
+        <v>17.782</v>
       </c>
       <c r="E156" s="4">
-        <v>0</v>
+        <v>-2.01308</v>
       </c>
       <c r="F156" s="69">
         <v>762</v>
@@ -6664,117 +6672,117 @@
         <v>0</v>
       </c>
       <c r="H156" s="70">
-        <v>33.425333333333299</v>
+        <v>19.069999999999901</v>
       </c>
       <c r="I156" s="4">
-        <v>8.8740000000000006</v>
+        <v>40.426000000000002</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B157" s="69">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="C157" s="69">
-        <v>0</v>
+        <v>2.2981000000000096</v>
       </c>
       <c r="D157" s="70">
-        <v>0.541333333333333</v>
+        <v>8.1846666666666597</v>
       </c>
       <c r="E157" s="4">
-        <v>134.096</v>
+        <v>122.264</v>
       </c>
       <c r="F157" s="69">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="G157" s="69">
         <v>0</v>
       </c>
       <c r="H157" s="70">
-        <v>-7.5839999999999996</v>
+        <v>-0.586666666666666</v>
       </c>
       <c r="I157" s="4">
-        <v>61.131999999999998</v>
+        <v>45.355999999999995</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B158" s="69">
-        <v>0</v>
+        <v>228.268</v>
       </c>
       <c r="C158" s="69">
-        <v>0</v>
+        <v>1.1185132000000046</v>
       </c>
       <c r="D158" s="70">
-        <v>25.8</v>
+        <v>-60.006666666666597</v>
       </c>
       <c r="E158" s="4">
-        <v>239.19399999999999</v>
+        <v>380.09799999999996</v>
       </c>
       <c r="F158" s="69">
-        <v>0</v>
+        <v>336.64</v>
       </c>
       <c r="G158" s="69">
         <v>0</v>
       </c>
       <c r="H158" s="70">
-        <v>9.3313333333333297</v>
+        <v>-73.355999999999995</v>
       </c>
       <c r="I158" s="4">
-        <v>281.26949999999999</v>
+        <v>374.22699999999998</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B159" s="69">
-        <v>4116</v>
+        <v>46007.267999999996</v>
       </c>
       <c r="C159" s="69">
-        <v>20.168400000000084</v>
+        <v>225.43561320000089</v>
       </c>
       <c r="D159" s="70">
-        <v>-657.73466666666548</v>
+        <v>22.902666666666583</v>
       </c>
       <c r="E159" s="4">
-        <v>1158.4430700000003</v>
+        <v>457.38391999999988</v>
       </c>
       <c r="F159" s="69">
-        <v>4545</v>
+        <v>45647.64</v>
       </c>
       <c r="G159" s="69">
         <v>0</v>
       </c>
       <c r="H159" s="70">
-        <v>-286.53466666666606</v>
+        <v>-214.15266666666554</v>
       </c>
       <c r="I159" s="4">
-        <v>3033.4405000000002</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2500.8150000000005</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B161" s="71" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C161" s="71" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E161" s="52">
         <v>0</v>
       </c>
       <c r="F161" s="52">
-        <v>-1446.1399999999901</v>
+        <v>-1450.8899999999901</v>
       </c>
       <c r="G161" s="52">
         <v>0</v>
@@ -6786,24 +6794,24 @@
         <v>-21.972000000000001</v>
       </c>
       <c r="J161" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B162" s="71" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E162" s="52">
-        <v>1175.71</v>
+        <v>1138.4000000000001</v>
       </c>
       <c r="F162" s="52">
         <v>0</v>
@@ -6818,27 +6826,27 @@
         <v>20.117000000000001</v>
       </c>
       <c r="J162" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B163" s="71" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E163" s="52">
-        <v>239.31</v>
+        <v>0</v>
       </c>
       <c r="F163" s="52">
-        <v>-410.45</v>
+        <v>-351.07</v>
       </c>
       <c r="G163" s="52">
         <v>0</v>
@@ -6850,27 +6858,27 @@
         <v>-1.72</v>
       </c>
       <c r="J163" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B164" s="71" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E164" s="52">
-        <v>169.06</v>
+        <v>0</v>
       </c>
       <c r="F164" s="52">
-        <v>-1028.8599999999999</v>
+        <v>-1268.6500000000001</v>
       </c>
       <c r="G164" s="52">
         <v>0</v>
@@ -6882,191 +6890,191 @@
         <v>-13.475</v>
       </c>
       <c r="J164" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="72"/>
       <c r="C165" s="73" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D165" s="74" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E165" s="75" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="76" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C166" s="77">
-        <v>152.69861750000001</v>
+        <v>131.52449249999901</v>
       </c>
       <c r="D166" s="77">
         <v>156.964</v>
       </c>
       <c r="E166" s="78">
-        <v>4.265382499999987</v>
+        <v>25.439507500000985</v>
       </c>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
     </row>
-    <row r="167" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="79" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C167" s="80">
-        <v>84.671532499999898</v>
+        <v>70.288475000000005</v>
       </c>
       <c r="D167" s="80">
         <v>79.748000000000005</v>
       </c>
       <c r="E167" s="81">
-        <v>-4.9235324999998937</v>
+        <v>9.4595249999999993</v>
       </c>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
     </row>
-    <row r="168" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="79" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C168" s="80">
-        <v>19.829465499999898</v>
+        <v>20.9306485</v>
       </c>
       <c r="D168" s="80">
         <v>18.764506000000001</v>
       </c>
       <c r="E168" s="81">
-        <v>-1.0649594999998975</v>
+        <v>-2.1661424999999994</v>
       </c>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
     </row>
-    <row r="169" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="79" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C169" s="80">
-        <v>132.13692750000001</v>
+        <v>135.275602499999</v>
       </c>
       <c r="D169" s="80">
         <v>132.387</v>
       </c>
       <c r="E169" s="81">
-        <v>0.25007249999998749</v>
+        <v>-2.8886024999989957</v>
       </c>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="79" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C170" s="80">
-        <v>9.9242872499999901</v>
+        <v>9.4506067500000004</v>
       </c>
       <c r="D170" s="80">
         <v>9.6970799999999997</v>
       </c>
       <c r="E170" s="81">
-        <v>-0.22720724999999042</v>
+        <v>0.24647324999999931</v>
       </c>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
     </row>
-    <row r="171" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="79" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C171" s="80">
-        <v>7.3024697500000002</v>
+        <v>6.9578222499999898</v>
       </c>
       <c r="D171" s="80">
         <v>7.90496</v>
       </c>
       <c r="E171" s="81">
-        <v>0.60249024999999978</v>
+        <v>0.94713775000001021</v>
       </c>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
     </row>
-    <row r="172" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="79" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C172" s="80">
-        <v>17.983344249999998</v>
+        <v>17.695578999999999</v>
       </c>
       <c r="D172" s="80">
         <v>18.3476</v>
       </c>
       <c r="E172" s="81">
-        <v>0.36425575000000165</v>
+        <v>0.65202100000000129</v>
       </c>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
     </row>
-    <row r="173" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="82" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C173" s="83">
-        <v>6.0772639999999898</v>
+        <v>8.9501360000000005</v>
       </c>
       <c r="D173" s="83">
-        <v>0</v>
+        <v>6.5831522050000002</v>
       </c>
       <c r="E173" s="84">
-        <v>-6.0772639999999898</v>
+        <v>-2.3669837950000003</v>
       </c>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
     </row>
-    <row r="174" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="85" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C174" s="86">
-        <v>430.62390824999983</v>
+        <v>401.07336249999798</v>
       </c>
       <c r="D174" s="87">
-        <v>423.81314600000007</v>
+        <v>430.39629820500005</v>
       </c>
       <c r="E174" s="88">
-        <v>-6.8107622499997547</v>
+        <v>29.322935705002067</v>
       </c>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
@@ -7088,13 +7096,13 @@
       <c r="A176" s="1"/>
       <c r="B176" s="72"/>
       <c r="C176" s="90" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D176" s="91" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E176" s="92" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
@@ -7103,267 +7111,267 @@
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B177" s="93" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C177" s="94">
-        <v>41.231173333333203</v>
+        <v>42.160333333333199</v>
       </c>
       <c r="D177" s="95">
-        <v>41.69140066666656</v>
+        <v>42.445597333333197</v>
       </c>
       <c r="E177" s="96">
-        <v>0.46022733333335708</v>
+        <v>0.28526399999999796</v>
       </c>
       <c r="F177" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G177" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="178" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B178" s="97" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C178" s="98">
-        <v>9.6011738333333287</v>
+        <v>10.049333333333328</v>
       </c>
       <c r="D178" s="99">
-        <v>9.495702166666657</v>
+        <v>9.891450999999984</v>
       </c>
       <c r="E178" s="100">
-        <v>-0.10547166666667174</v>
+        <v>-0.15788233333334389</v>
       </c>
       <c r="F178" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G178" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B179" s="97" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C179" s="98">
-        <v>24.334854333333119</v>
+        <v>25.51032499999992</v>
       </c>
       <c r="D179" s="99">
-        <v>24.554485666666562</v>
+        <v>25.40917833333312</v>
       </c>
       <c r="E179" s="100">
-        <v>0.21963133333344231</v>
+        <v>-0.10114666666679994</v>
       </c>
       <c r="F179" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G179" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B180" s="97" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C180" s="98">
-        <v>22.243939166666642</v>
+        <v>21.022791666666649</v>
       </c>
       <c r="D180" s="99">
-        <v>21.87788333333333</v>
+        <v>20.433577833333313</v>
       </c>
       <c r="E180" s="100">
-        <v>-0.36605583333331282</v>
+        <v>-0.58921383333333566</v>
       </c>
       <c r="F180" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G180" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B181" s="97" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C181" s="98">
-        <v>22.190404166666639</v>
+        <v>22.408119999999986</v>
       </c>
       <c r="D181" s="99">
-        <v>23.070069166666656</v>
+        <v>23.120609833333344</v>
       </c>
       <c r="E181" s="100">
-        <v>0.87966500000001702</v>
+        <v>0.71248983333335758</v>
       </c>
       <c r="F181" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G181" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="182" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B182" s="97" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C182" s="98">
-        <v>22.193291666666664</v>
+        <v>22.457887499999998</v>
       </c>
       <c r="D182" s="99">
-        <v>22.576183333333319</v>
+        <v>22.876083333333337</v>
       </c>
       <c r="E182" s="100">
-        <v>0.38289166666665508</v>
+        <v>0.4181958333333391</v>
       </c>
       <c r="F182" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G182" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="183" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B183" s="101" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C183" s="98">
-        <v>10.962121499999975</v>
+        <v>11.231524999999992</v>
       </c>
       <c r="D183" s="99">
-        <v>11.036250000000001</v>
+        <v>11.230233333333313</v>
       </c>
       <c r="E183" s="100">
-        <v>7.4128500000025355E-2</v>
+        <v>-1.2916666666793475E-3</v>
       </c>
       <c r="F183" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G183" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="184" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B184" s="97" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C184" s="98">
-        <v>44.162564166666485</v>
+        <v>44.285499999999836</v>
       </c>
       <c r="D184" s="99">
-        <v>45.052255666666561</v>
+        <v>45.116149333333205</v>
       </c>
       <c r="E184" s="100">
-        <v>0.88969150000007602</v>
+        <v>0.8306493333333691</v>
       </c>
       <c r="F184" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="G184" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B185" s="97" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C185" s="98">
-        <v>22.616139999999984</v>
+        <v>22.62</v>
       </c>
       <c r="D185" s="99">
-        <v>22.918482666666648</v>
+        <v>22.934155166666663</v>
       </c>
       <c r="E185" s="100">
-        <v>0.30234266666666443</v>
+        <v>0.31415516666666221</v>
       </c>
       <c r="F185" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="G185" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="186" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B186" s="97" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C186" s="98">
-        <v>6.6236179999999916</v>
+        <v>6.5527678333333199</v>
       </c>
       <c r="D186" s="99">
-        <v>6.2573128333333194</v>
+        <v>6.0987951666666484</v>
       </c>
       <c r="E186" s="100">
-        <v>-0.36630516666667212</v>
+        <v>-0.45397266666667146</v>
       </c>
       <c r="F186" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G186" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B187" s="97" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C187" s="98">
-        <v>82.661623333333196</v>
+        <v>88.44</v>
       </c>
       <c r="D187" s="99">
-        <v>85.437324499999917</v>
+        <v>90.879963999999845</v>
       </c>
       <c r="E187" s="100">
-        <v>2.7757011666667211</v>
+        <v>2.439963999999847</v>
       </c>
       <c r="F187" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G187" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="188" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B188" s="97" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C188" s="98">
-        <v>65.741744333333287</v>
+        <v>70.694333333333276</v>
       </c>
       <c r="D188" s="99">
-        <v>64.904933333333275</v>
+        <v>69.292859666666644</v>
       </c>
       <c r="E188" s="100">
-        <v>-0.83681100000001152</v>
+        <v>-1.4014736666666323</v>
       </c>
       <c r="F188" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="G188" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="189" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B189" s="97" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C189" s="98">
-        <v>10.602434666666664</v>
+        <v>10.459777666666655</v>
       </c>
       <c r="D189" s="99">
-        <v>10.459166166666648</v>
+        <v>10.431224166666649</v>
       </c>
       <c r="E189" s="100">
-        <v>-0.14326850000001556</v>
+        <v>-2.8553500000006338E-2</v>
       </c>
       <c r="F189" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G189" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="190" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B190" s="97" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C190" s="98">
         <v>0</v>
@@ -7375,185 +7383,185 @@
         <v>-4.3679999999999761E-2</v>
       </c>
       <c r="F190" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G190" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="191" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B191" s="97" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C191" s="98">
-        <v>6.4322166666666485</v>
+        <v>6.3360333333333125</v>
       </c>
       <c r="D191" s="99">
-        <v>6.1770811666666567</v>
+        <v>6.1672469999999766</v>
       </c>
       <c r="E191" s="100">
-        <v>-0.25513549999999174</v>
+        <v>-0.16878633333333593</v>
       </c>
       <c r="F191" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G191" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="192" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B192" s="97" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C192" s="98">
-        <v>22.305333333333337</v>
+        <v>23.399250000000002</v>
       </c>
       <c r="D192" s="99">
-        <v>22.189853333333328</v>
+        <v>23.663721666666646</v>
       </c>
       <c r="E192" s="100">
-        <v>-0.11548000000000869</v>
+        <v>0.26447166666664401</v>
       </c>
       <c r="F192" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G192" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="193" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B193" s="97" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C193" s="98">
-        <v>5.8371259999999943</v>
+        <v>5.7747813333333236</v>
       </c>
       <c r="D193" s="99">
-        <v>5.5614945000000002</v>
+        <v>5.5500619999999925</v>
       </c>
       <c r="E193" s="100">
-        <v>-0.27563149999999403</v>
+        <v>-0.22471933333333105</v>
       </c>
       <c r="F193" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="G193" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="H193" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="I193" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="J193" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="194" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B194" s="97" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C194" s="98">
-        <v>4.0717881666666571</v>
+        <v>4.1577081666666622</v>
       </c>
       <c r="D194" s="99">
-        <v>3.7848571666666562</v>
+        <v>3.8447599999999924</v>
       </c>
       <c r="E194" s="100">
-        <v>-0.28693100000000094</v>
+        <v>-0.3129481666666698</v>
       </c>
       <c r="F194" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="G194" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="H194" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I194" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B195" s="97" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C195" s="98">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D195" s="99">
-        <v>11.965691499999984</v>
+        <v>11.8796505</v>
       </c>
       <c r="E195" s="100">
-        <v>-3.430850000001584E-2</v>
+        <v>11.8796505</v>
       </c>
       <c r="F195" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="G195" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B196" s="102" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C196" s="98">
-        <v>1.1133333333333313E-2</v>
+        <v>0</v>
       </c>
       <c r="D196" s="99">
-        <v>-4.4531499999999842E-2</v>
+        <v>-4.439049999999984E-2</v>
       </c>
       <c r="E196" s="100">
-        <v>-5.5664833333333157E-2</v>
+        <v>-4.439049999999984E-2</v>
       </c>
       <c r="F196" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G196" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="197" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B197" s="103" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C197" s="98">
-        <v>15.973230333333312</v>
+        <v>16.31525933333333</v>
       </c>
       <c r="D197" s="99">
-        <v>16.077731666666665</v>
+        <v>16.051772166666648</v>
       </c>
       <c r="E197" s="100">
-        <v>0.10450133333335287</v>
+        <v>-0.26348716666668182</v>
       </c>
       <c r="F197" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G197" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="198" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B198" s="103" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C198" s="98">
-        <v>9.0799626666666491</v>
+        <v>10.191851166666648</v>
       </c>
       <c r="D198" s="99">
-        <v>9.0789213333333123</v>
+        <v>10.178634166666656</v>
       </c>
       <c r="E198" s="100">
-        <v>-1.0413333333367802E-3</v>
+        <v>-1.3216999999992041E-2</v>
       </c>
       <c r="F198" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="G198" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="199" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -7574,29 +7582,29 @@
       <c r="D201" s="106"/>
       <c r="E201" s="106"/>
     </row>
-    <row r="202" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B202" s="107" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C202" s="108">
-        <v>5.6432408333333042</v>
+        <v>6.7569489999999846</v>
       </c>
       <c r="D202" s="109">
-        <v>5.6713928333333286</v>
+        <v>6.6578479999999924</v>
       </c>
       <c r="E202" s="110">
-        <v>2.815200000002438E-2</v>
+        <v>-9.9100999999992112E-2</v>
       </c>
       <c r="F202" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="G202" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="203" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="203" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B203" s="79" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C203" s="111">
         <v>0</v>
@@ -7608,424 +7616,424 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B204" s="79" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C204" s="111">
-        <v>8.2244254999999917</v>
+        <v>8.5383501666666479</v>
       </c>
       <c r="D204" s="99">
-        <v>8.0584978333333197</v>
+        <v>8.8885461666666483</v>
       </c>
       <c r="E204" s="113">
-        <v>-0.16592766666667202</v>
+        <v>0.3501960000000004</v>
       </c>
       <c r="F204" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="G204" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="205" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="205" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B205" s="79" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C205" s="111">
-        <v>18.445697333333303</v>
+        <v>20.389617333333337</v>
       </c>
       <c r="D205" s="99">
-        <v>19.170550833333312</v>
+        <v>20.927086833333313</v>
       </c>
       <c r="E205" s="113">
-        <v>0.72485350000000892</v>
+        <v>0.5374694999999754</v>
       </c>
       <c r="F205" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="G205" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="206" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B206" s="79" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C206" s="111">
-        <v>11.594404999999968</v>
+        <v>13.06639999999997</v>
       </c>
       <c r="D206" s="99">
-        <v>11.854724499999985</v>
+        <v>13.273647333333313</v>
       </c>
       <c r="E206" s="113">
-        <v>0.26031950000001736</v>
+        <v>0.20724733333334378</v>
       </c>
       <c r="F206" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G206" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="207" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B207" s="79" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C207" s="111">
-        <v>11.779941666666648</v>
+        <v>11.940666666666647</v>
       </c>
       <c r="D207" s="99">
-        <v>11.749501833333312</v>
+        <v>12.013738666666656</v>
       </c>
       <c r="E207" s="113">
-        <v>-3.0439833333335997E-2</v>
+        <v>7.3072000000008686E-2</v>
       </c>
       <c r="F207" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="G207" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="208" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B208" s="79" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C208" s="111">
-        <v>10.446861333333311</v>
+        <v>11.136567833333329</v>
       </c>
       <c r="D208" s="99">
-        <v>10.852141833333311</v>
+        <v>11.060634166666656</v>
       </c>
       <c r="E208" s="113">
-        <v>0.40528049999999993</v>
+        <v>-7.5933666666673005E-2</v>
       </c>
       <c r="F208" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="G208" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="79" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C209" s="111">
-        <v>19.269752999999977</v>
+        <v>18.82141283333333</v>
       </c>
       <c r="D209" s="99">
-        <v>19.567481999999977</v>
+        <v>18.918691333333346</v>
       </c>
       <c r="E209" s="113">
-        <v>0.29772900000000035</v>
+        <v>9.7278500000015811E-2</v>
       </c>
       <c r="F209" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="G209" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="79" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C210" s="111">
-        <v>8.3833333333333207E-5</v>
+        <v>0</v>
       </c>
       <c r="D210" s="99">
         <v>0</v>
       </c>
       <c r="E210" s="113">
-        <v>-8.3833333333333207E-5</v>
+        <v>0</v>
       </c>
       <c r="F210" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="G210" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="79" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C211" s="111">
-        <v>9.426999999999984E-3</v>
+        <v>0</v>
       </c>
       <c r="D211" s="99">
         <v>0</v>
       </c>
       <c r="E211" s="113">
-        <v>-9.426999999999984E-3</v>
+        <v>0</v>
       </c>
       <c r="F211" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="G211" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="79" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C212" s="111">
-        <v>19.573727333333331</v>
+        <v>20.736093333333336</v>
       </c>
       <c r="D212" s="99">
-        <v>19.760129166666651</v>
+        <v>20.815985499999986</v>
       </c>
       <c r="E212" s="113">
-        <v>0.18640183333332061</v>
+        <v>7.9892166666649445E-2</v>
       </c>
       <c r="F212" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="G212" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="79" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C213" s="111">
-        <v>10.559324499999985</v>
+        <v>9.3342416666666637</v>
       </c>
       <c r="D213" s="99">
-        <v>10.813698833333328</v>
+        <v>9.5269609999999911</v>
       </c>
       <c r="E213" s="113">
-        <v>0.25437433333334347</v>
+        <v>0.19271933333332747</v>
       </c>
       <c r="F213" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G213" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="79" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C214" s="111">
-        <v>9.0828524999999765</v>
+        <v>9.0727799999999768</v>
       </c>
       <c r="D214" s="99">
-        <v>8.9662426666666555</v>
+        <v>8.8008384999999851</v>
       </c>
       <c r="E214" s="113">
-        <v>-0.11660983333332098</v>
+        <v>-0.27194149999999162</v>
       </c>
       <c r="F214" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="G214" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="79" t="s">
-        <v>427</v>
-      </c>
-      <c r="C215" s="111" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D215" s="99" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E215" s="113" t="e">
-        <v>#VALUE!</v>
+        <v>430</v>
+      </c>
+      <c r="C215" s="111">
+        <v>5.2974661666666556</v>
+      </c>
+      <c r="D215" s="99">
+        <v>5.4169279999999915</v>
+      </c>
+      <c r="E215" s="113">
+        <v>0.11946183333333593</v>
       </c>
       <c r="F215" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="G215" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="114" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C216" s="111">
-        <v>9.2851631666666634</v>
+        <v>6.3255781666666557</v>
       </c>
       <c r="D216" s="99">
-        <v>8.3846176666666565</v>
+        <v>6.0078031666666556</v>
       </c>
       <c r="E216" s="113">
-        <v>-0.90054550000000688</v>
+        <v>-0.31777500000000014</v>
       </c>
       <c r="F216" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="G216" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="114" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C217" s="111">
-        <v>7.63139833333332</v>
+        <v>4.8</v>
       </c>
       <c r="D217" s="99">
-        <v>7.5521608333333194</v>
+        <v>4.7533939999999921</v>
       </c>
       <c r="E217" s="113">
-        <v>-7.9237500000000516E-2</v>
+        <v>-4.6606000000007697E-2</v>
       </c>
       <c r="F217" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="G217" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="115" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C218" s="111">
-        <v>17.811793166666664</v>
+        <v>19.076434666666657</v>
       </c>
       <c r="D218" s="99">
-        <v>17.811793166666664</v>
+        <v>19.076434666666657</v>
       </c>
       <c r="E218" s="113">
         <v>0</v>
       </c>
       <c r="F218" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="G218" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="116" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C219" s="111">
-        <v>7.947050666666664</v>
+        <v>9.3300413333333054</v>
       </c>
       <c r="D219" s="99">
-        <v>6.6089586666666476</v>
+        <v>9.2943539999999771</v>
       </c>
       <c r="E219" s="113">
-        <v>-1.3380920000000165</v>
+        <v>-3.5687333333328297E-2</v>
       </c>
       <c r="F219" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="G219" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="115" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C220" s="111">
-        <v>1.6666666666666658E-6</v>
+        <v>0</v>
       </c>
       <c r="D220" s="99">
         <v>-7.4639999999999998E-2</v>
       </c>
       <c r="E220" s="113">
-        <v>-7.4641666666666662E-2</v>
+        <v>-7.4639999999999998E-2</v>
       </c>
       <c r="F220" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="G220" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="117" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C221" s="111">
-        <v>4.7691588333333126</v>
+        <v>9.0052249999999923</v>
       </c>
       <c r="D221" s="99">
-        <v>2.9479733333333282</v>
+        <v>8.7171578333333279</v>
       </c>
       <c r="E221" s="113">
-        <v>-1.8211854999999844</v>
+        <v>-0.28806716666666432</v>
       </c>
       <c r="F221" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="G221" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="32" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C222" s="111">
-        <v>6.2173958333333035</v>
+        <v>6.4816566666666491</v>
       </c>
       <c r="D222" s="99">
-        <v>6.3491175000000002</v>
+        <v>6.5854804999999912</v>
       </c>
       <c r="E222" s="113">
-        <v>0.13172166666669671</v>
+        <v>0.10382383333334211</v>
       </c>
       <c r="F222" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="G222" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B224" s="118">
-        <v>19.454819999999977</v>
+        <v>18.7744</v>
       </c>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="119" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C225" s="119" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D225" s="120" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E225" s="121">
-        <v>441.83</v>
+        <v>539.94000000000005</v>
       </c>
       <c r="F225" s="121">
         <v>0</v>
@@ -8040,25 +8048,25 @@
         <v>7.9740000000000002</v>
       </c>
       <c r="J225" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="119" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C226" s="119" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D226" s="120" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E226" s="121">
         <v>0</v>
       </c>
       <c r="F226" s="121">
-        <v>-2020.61</v>
+        <v>-2010.85</v>
       </c>
       <c r="G226" s="121">
         <v>0</v>
@@ -8070,39 +8078,39 @@
         <v>-41.96</v>
       </c>
       <c r="J226" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="227" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A227" s="48"/>
       <c r="B227" s="49" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C227" s="49" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D227" s="48" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E227" s="48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F227" s="48" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G227" s="48" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H227" s="48" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I227" s="48" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="228" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A228" s="51" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B228" s="51"/>
       <c r="C228" s="19"/>
@@ -8113,22 +8121,22 @@
       <c r="H228" s="19"/>
       <c r="I228" s="19"/>
     </row>
-    <row r="229" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A229" s="19"/>
       <c r="B229" s="51" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C229" s="54" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D229" s="19" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E229" s="52">
         <v>0</v>
       </c>
       <c r="F229" s="52">
-        <v>-1533</v>
+        <v>-2803</v>
       </c>
       <c r="G229" s="52">
         <v>0</v>
@@ -8140,25 +8148,25 @@
         <v>-35.241999999999997</v>
       </c>
       <c r="J229" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="54" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C230" s="54" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D230" s="19" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E230" s="52">
-        <v>0</v>
+        <v>178.69</v>
       </c>
       <c r="F230" s="52">
-        <v>-1967.8899999999901</v>
+        <v>-1770.95</v>
       </c>
       <c r="G230" s="52">
         <v>0</v>
@@ -8170,42 +8178,42 @@
         <v>-26.63</v>
       </c>
       <c r="J230" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="122" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C232" s="123" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D232" s="1"/>
       <c r="E232" s="123" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="F232" s="123" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="71" t="s">
-        <v>462</v>
-      </c>
-      <c r="C233" s="9">
-        <v>632.05198616666667</v>
-      </c>
-      <c r="D233" s="1"/>
-      <c r="E233" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="F233" s="9">
-        <v>566.74472270226795</v>
+        <v>465</v>
+      </c>
+      <c r="C233" s="8">
+        <v>668.06854516666556</v>
+      </c>
+      <c r="D233" s="124"/>
+      <c r="E233" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="F233" s="8">
+        <v>576.48532791752586</v>
       </c>
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
@@ -8214,16 +8222,16 @@
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="71" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C234" s="9">
         <v>26.601902499999998</v>
       </c>
-      <c r="D234" s="1"/>
-      <c r="E234" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="F234" s="124">
+      <c r="D234" s="124"/>
+      <c r="E234" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="F234" s="125">
         <v>24.743434499999985</v>
       </c>
       <c r="G234" s="1"/>
@@ -8233,17 +8241,17 @@
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="71" t="s">
-        <v>465</v>
-      </c>
-      <c r="C235" s="9">
-        <v>-3.9872666666666688E-2</v>
-      </c>
-      <c r="D235" s="1"/>
-      <c r="E235" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="F235" s="9">
-        <v>25.952873999999998</v>
+        <v>468</v>
+      </c>
+      <c r="C235" s="8">
+        <v>-4.439049999999984E-2</v>
+      </c>
+      <c r="D235" s="124"/>
+      <c r="E235" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="F235" s="8">
+        <v>19.574974000000001</v>
       </c>
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
@@ -8252,36 +8260,36 @@
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="71" t="s">
-        <v>466</v>
-      </c>
-      <c r="C236" s="9">
-        <v>30.19935383333333</v>
-      </c>
-      <c r="D236" s="1"/>
-      <c r="E236" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="F236" s="124">
-        <v>26.809631999999979</v>
+        <v>469</v>
+      </c>
+      <c r="C236" s="8">
+        <v>29.787288666666623</v>
+      </c>
+      <c r="D236" s="124"/>
+      <c r="E236" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="F236" s="18">
+        <v>86.411000000000001</v>
       </c>
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="71" t="s">
-        <v>468</v>
-      </c>
-      <c r="C237" s="125">
-        <v>0</v>
-      </c>
-      <c r="D237" s="1"/>
-      <c r="E237" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="F237" s="9">
-        <v>19.454819999999977</v>
+        <v>471</v>
+      </c>
+      <c r="C237" s="126">
+        <v>0</v>
+      </c>
+      <c r="D237" s="124"/>
+      <c r="E237" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="F237" s="8">
+        <v>18.7744</v>
       </c>
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
